--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{85B76E85-E2AC-4DF6-A003-E80457AC57E1}"/>
   <bookViews>
     <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="179">
   <si>
     <t>Facility ID:</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Ex_Struct_BMP</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,14 +1465,16 @@
     <col min="6" max="6" width="11.109375" customWidth="1"/>
     <col min="32" max="32" width="19.6640625" customWidth="1"/>
     <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="39" max="39" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1483,7 +1488,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1592,7 +1597,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>155</v>
       </c>
       <c r="AG5" s="25" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AH5" s="47" t="s">
         <v>157</v>
@@ -1829,8 +1834,11 @@
       <c r="AM5" s="55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1987,8 +1995,11 @@
         <f t="shared" ref="AM6:AM7" ca="1" si="1">VLOOKUP(AM$3,INDIRECT("'Facility "&amp;$A6&amp;"'!"&amp;"$A$4:$D$41"),3,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AQ6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2145,11 +2156,187 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AQ7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="AQ15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="43:43" x14ac:dyDescent="0.3">
+      <c r="AQ32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AQ42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{85B76E85-E2AC-4DF6-A003-E80457AC57E1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{736FEB3B-E647-45B7-A8CB-8694C613C0EF}"/>
   <bookViews>
     <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="182">
   <si>
     <t>Facility ID:</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t>Ex_Struct_BMP</t>
+  </si>
+  <si>
+    <t>Imperv2</t>
+  </si>
+  <si>
+    <t>Imperv</t>
+  </si>
+  <si>
+    <t>FP_100_Year</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1754,7 @@
         <v>131</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>139</v>
@@ -1781,7 +1790,7 @@
         <v>146</v>
       </c>
       <c r="V5" s="43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="W5" s="25" t="s">
         <v>149</v>
@@ -1805,7 +1814,7 @@
         <v>152</v>
       </c>
       <c r="AD5" s="25" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="AE5" s="25" t="s">
         <v>154</v>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Facility Features Worksheet (Bus Facilities).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{736FEB3B-E647-45B7-A8CB-8694C613C0EF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{AAB884C7-0C26-4005-ACAC-C8D75FD10246}"/>
   <bookViews>
     <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="178">
   <si>
     <t>Facility ID:</t>
   </si>
@@ -566,9 +566,6 @@
     <t>Pave_Area</t>
   </si>
   <si>
-    <t>%_Imperv</t>
-  </si>
-  <si>
     <t>Runoff_Coeff</t>
   </si>
   <si>
@@ -629,18 +626,12 @@
     <t>Soil_Type</t>
   </si>
   <si>
-    <t>100_Year_FP</t>
-  </si>
-  <si>
     <t>Num_Ind_DP</t>
   </si>
   <si>
     <t>Runoff_Type</t>
   </si>
   <si>
-    <t>Ex_Struct_BMP?</t>
-  </si>
-  <si>
     <t>Count_Pipe</t>
   </si>
   <si>
@@ -657,9 +648,6 @@
   </si>
   <si>
     <t>WQFR</t>
-  </si>
-  <si>
-    <t>%_Imperv2</t>
   </si>
   <si>
     <t>Fac_Slope</t>
@@ -1459,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,12 +1466,12 @@
     <col min="43" max="43" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1497,7 +1485,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1603,10 +1591,10 @@
         <v>113</v>
       </c>
       <c r="AM3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="100.8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1722,24 +1710,24 @@
         <v>118</v>
       </c>
       <c r="AM4" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>129</v>
@@ -1748,106 +1736,103 @@
         <v>130</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="O5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="R5" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="R5" s="44" t="s">
-        <v>138</v>
-      </c>
       <c r="S5" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="U5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="V5" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y5" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="V5" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="25" t="s">
+      <c r="Z5" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="X5" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y5" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AD5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AD5" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AF5" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH5" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AF5" s="25" t="s">
+      <c r="AI5" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AG5" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH5" s="47" t="s">
+      <c r="AJ5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK5" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AI5" s="44" t="s">
+      <c r="AL5" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AJ5" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL5" s="44" t="s">
-        <v>161</v>
-      </c>
       <c r="AM5" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2004,11 +1989,8 @@
         <f t="shared" ref="AM6:AM7" ca="1" si="1">VLOOKUP(AM$3,INDIRECT("'Facility "&amp;$A6&amp;"'!"&amp;"$A$4:$D$41"),3,0)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2165,187 +2147,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="AQ15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="43:43" x14ac:dyDescent="0.3">
-      <c r="AQ32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="AQ42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>42</v>
       </c>
@@ -2954,10 +2760,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C41" s="29">
         <f>COUNTIF(C50:C68,"Trench Drain to Piped Outlet")</f>
@@ -2986,10 +2792,10 @@
         <v>17</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="56"/>
@@ -2999,10 +2805,10 @@
         <v>18</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="56"/>
@@ -3012,7 +2818,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="19"/>
@@ -3023,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="19"/>
@@ -3034,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="19"/>
@@ -3045,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="19"/>
@@ -3715,10 +3521,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C41" s="29">
         <f>COUNTIF(C50:C68,"Trench Drain to Piped Outlet")</f>
@@ -3747,10 +3553,10 @@
         <v>17</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="56"/>
@@ -3760,10 +3566,10 @@
         <v>18</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="56"/>
@@ -3773,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="19"/>
@@ -3784,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="19"/>
@@ -3795,7 +3601,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="19"/>
@@ -3806,7 +3612,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="19"/>
